--- a/Blackscholes.xlsx
+++ b/Blackscholes.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="14">
   <si>
     <t>s</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,6 +67,10 @@
   </si>
   <si>
     <t>put</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>call%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -427,7 +431,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -441,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>2.9649999999999999</v>
+        <v>5175</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -461,7 +465,8 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>3.6</v>
+        <f>+B1*1.1</f>
+        <v>5692.5000000000009</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
@@ -481,7 +486,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.25919999999999999</v>
+        <v>0.28589999999999999</v>
       </c>
       <c r="D3" t="s">
         <v>2</v>
@@ -521,12 +526,9 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <f>122/365</f>
-        <v>0.33424657534246577</v>
-      </c>
-      <c r="C5" s="1">
-        <v>43278</v>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="C5" s="1"/>
       <c r="D5" t="s">
         <v>4</v>
       </c>
@@ -546,13 +548,10 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C6" s="2">
-        <f ca="1">C5-TODAY()</f>
-        <v>121</v>
-      </c>
+      <c r="C6" s="2"/>
       <c r="F6" s="2">
         <f ca="1">F5-TODAY()</f>
-        <v>30</v>
+        <v>-117</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -561,7 +560,7 @@
       </c>
       <c r="B7">
         <f>(LN(B1/B2)+(B4+0.5*(B3^2))*B5)/(B3*SQRT(B5))</f>
-        <v>-1.1308258524766053</v>
+        <v>-0.27144331670329974</v>
       </c>
       <c r="D7" t="s">
         <v>5</v>
@@ -584,7 +583,7 @@
       </c>
       <c r="B8">
         <f>NORMSDIST(B7)</f>
-        <v>0.12906419823715715</v>
+        <v>0.39302504511395736</v>
       </c>
       <c r="D8" t="s">
         <v>6</v>
@@ -607,7 +606,7 @@
       </c>
       <c r="B9">
         <f>(LN(B1/B2)+(B4-0.5*(B3^2))*B5)/(B3*SQRT(B5))</f>
-        <v>-1.280679900922473</v>
+        <v>-0.47360514544453369</v>
       </c>
       <c r="D9" t="s">
         <v>7</v>
@@ -630,7 +629,7 @@
       </c>
       <c r="B10">
         <f>NORMSDIST(B9)</f>
-        <v>0.10015306114290662</v>
+        <v>0.31789075277653284</v>
       </c>
       <c r="D10" t="s">
         <v>8</v>
@@ -653,7 +652,7 @@
       </c>
       <c r="B11">
         <f>B1*B8-B2*B10*EXP(-B4*B5)</f>
-        <v>2.6912763711226195E-2</v>
+        <v>260.1438426408431</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
@@ -670,13 +669,22 @@
         <v>3.560239410633903E-2</v>
       </c>
     </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <f>+B11/B1</f>
+        <v>5.0269341573109777E-2</v>
+      </c>
+    </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
       <c r="B13">
         <f>1/SQRT(2*PI())*EXP(-0.5*B7^2)*SQRT(B5)*B1</f>
-        <v>0.36081742031333858</v>
+        <v>1407.037568024969</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -685,7 +693,7 @@
       </c>
       <c r="B14">
         <f>0.4*EXP(-0.5*B7^2)/(B1*B3*SQRT(B5))</f>
-        <v>0.47499174705954073</v>
+        <v>3.6851125017071023E-4</v>
       </c>
     </row>
   </sheetData>
